--- a/servers_query_automation/queries_test.xlsx
+++ b/servers_query_automation/queries_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C81F4F3-5482-40F4-8700-55FC2E0381A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C2FE1-4422-4ABA-83FD-D448EDF7DD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>OS VERSION</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>cmd - dir \projects\</t>
+  </si>
+  <si>
+    <t>query 3</t>
+  </si>
+  <si>
+    <t>query 4</t>
+  </si>
+  <si>
+    <t>cmd - echo test1</t>
+  </si>
+  <si>
+    <t>cmd - echo test2</t>
+  </si>
+  <si>
+    <t>cmd - echo test3</t>
+  </si>
+  <si>
+    <t>cmd - echo yahm</t>
   </si>
 </sst>
 </file>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -435,7 +453,7 @@
     <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +463,14 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -456,8 +480,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -467,8 +497,14 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -477,6 +513,12 @@
       </c>
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
